--- a/new_innovation/confusion_matrix.xlsx
+++ b/new_innovation/confusion_matrix.xlsx
@@ -377,7 +377,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3">
@@ -388,7 +388,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -399,7 +399,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -410,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
